--- a/docs/research_bar.xlsx
+++ b/docs/research_bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boloq\Box\CV_Resume\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boloq\Box\CV_Resume\CV\CVR_BAR\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562275CB-5DD6-4064-AD13-FCA8B5AE7BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8186AE-796E-47C8-AD62-80B317C9A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research_bar" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>what</t>
   </si>
@@ -58,12 +58,6 @@
     <t xml:space="preserve">Undergraduate Research Assistant </t>
   </si>
   <si>
-    <t xml:space="preserve"> University of Puerto Rico</t>
-  </si>
-  <si>
-    <t>Analytical Chemistry Division, Department of Chemistry, San Juan, PR</t>
-  </si>
-  <si>
     <t>PI, Liz Díaz, Ph. D.</t>
   </si>
   <si>
@@ -73,12 +67,6 @@
     <t xml:space="preserve">Worked in the characterization of Ackee Fruit and applied the QuEChERS method to analyze analyte properties  </t>
   </si>
   <si>
-    <t>University of Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Center for Renewable Energy, Department of Chemistry, San Juan, PR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Characterized and assessed marine algae as sources for biofuels, plastics, electrodes and bioindicators. </t>
   </si>
   <si>
@@ -122,6 +110,12 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>Department of Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Puerto Rico, San Juan, PR</t>
   </si>
 </sst>
 </file>
@@ -966,26 +960,29 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1005,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -1036,13 +1033,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -1067,37 +1064,37 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2014</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,37 +1102,37 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>2013</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>2013</v>
@@ -1153,18 +1150,18 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/research_bar.xlsx
+++ b/docs/research_bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boloq\Box\CV_Resume\CV\CVR_BAR\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8186AE-796E-47C8-AD62-80B317C9A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CA5C7-27F3-40F7-B520-C842D5C06F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11265" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="research_bar" sheetId="1" r:id="rId1"/>
@@ -61,18 +61,12 @@
     <t>PI, Liz Díaz, Ph. D.</t>
   </si>
   <si>
-    <t xml:space="preserve">Conducted GC-MS and QuECHERs methods in development of an analytical methodology for the detection of Hypoglycin A in Ackee Fruit (Blighia sapida). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Worked in the characterization of Ackee Fruit and applied the QuEChERS method to analyze analyte properties  </t>
   </si>
   <si>
     <t xml:space="preserve">Characterized and assessed marine algae as sources for biofuels, plastics, electrodes and bioindicators. </t>
   </si>
   <si>
-    <t>Conducted a simultaneous assay of pigments, carbohydrates, proteins and lipids of Tricleocarpa cylindrical.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Center for Landscape Conservation, Inc. </t>
   </si>
   <si>
@@ -116,13 +110,65 @@
   </si>
   <si>
     <t xml:space="preserve"> University of Puerto Rico, San Juan, PR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conducted a simultaneous assay of pigments, carbohydrates, proteins and lipids of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tricleocarpa cylindrica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Conducted GC-MS and QuECHERs methods in development of an analytical methodology for the detection of Hypoglycin A in Ackee Fruit (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blighia sapida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +299,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -960,29 +1014,29 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -997,18 +1051,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -1023,23 +1077,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2016</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -1054,93 +1108,89 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2014</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2013</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>2013</v>
       </c>
       <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2013</v>
@@ -1150,18 +1200,18 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/research_bar.xlsx
+++ b/docs/research_bar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -47,6 +47,33 @@
   </si>
   <si>
     <t xml:space="preserve">why</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctoral research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecology and Evolutionary Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulane University, New Orleans, LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Leaf Functional Traits Influence on Foliar Endophytic Fungi and Their Effects on Plant’s Response to Herbivory and Pathogenicity In Tropical Trees”  (in progress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Foliar Endophytic Fungi in Yellow Monkeyflowers Along an Elevational Gradient in the Sierra Nevada, CA”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Leaf Functional Trait Plasticity and Foliar Endophytic Fungi in Yellow Monkeyflowers: Linking Traits and Symbionts to Genes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI, Sunshine Van Bael Ph.D. &amp; Kathleen Ferris, Ph.D.</t>
   </si>
   <si>
     <t xml:space="preserve">Master’s Thesis</t>
@@ -465,11 +492,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="46.7"/>
   </cols>
   <sheetData>
@@ -510,14 +538,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>2018</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -528,40 +555,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,102 +596,167 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/research_bar.xlsx
+++ b/docs/research_bar.xlsx
@@ -67,10 +67,10 @@
     <t xml:space="preserve">“Leaf Functional Traits Influence on Foliar Endophytic Fungi and Their Effects on Plant’s Response to Herbivory and Pathogenicity In Tropical Trees”  (in progress)</t>
   </si>
   <si>
-    <t xml:space="preserve">“Foliar Endophytic Fungi in Yellow Monkeyflowers Along an Elevational Gradient in the Sierra Nevada, CA”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Leaf Functional Trait Plasticity and Foliar Endophytic Fungi in Yellow Monkeyflowers: Linking Traits and Symbionts to Genes”</t>
+    <t xml:space="preserve">“Foliar Endophytic Fungi in Yellow Monkeyflowers Along an Elevational Gradient in the Sierra Nevada, CA”  (in progress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Leaf Functional Trait Plasticity and Foliar Endophytic Fungi in Yellow Monkeyflowers: Linking Traits and Symbionts to Genes”  (in progress)</t>
   </si>
   <si>
     <t xml:space="preserve">PI, Sunshine Van Bael Ph.D. &amp; Kathleen Ferris, Ph.D.</t>
@@ -491,13 +491,13 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="46.7"/>
   </cols>
   <sheetData>
@@ -555,8 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -568,7 +567,6 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -579,8 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -653,7 +650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -715,7 +712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="1" t="s">
         <v>36</v>
       </c>
